--- a/Country_COVID19/Italy.xlsx
+++ b/Country_COVID19/Italy.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SCUMATH_Project\Python\Italy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\SCUMATH_Project\Project_ver2\Country_COVID19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7317A206-5CB6-4ABA-BCE0-B14657C5F60B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E913200F-29BC-497D-AD78-C43B30862648}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11256" yWindow="624" windowWidth="12324" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -108,7 +108,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@"/>
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -184,7 +184,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -193,7 +193,7 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -205,16 +205,16 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -434,8 +434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J985"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -573,10 +573,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="11"/>
+      <c r="J7" s="12"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
@@ -594,8 +594,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -1325,38 +1325,228 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1">
+        <v>43908</v>
+      </c>
+      <c r="C49" s="2">
+        <v>35713</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1">
+        <v>43909</v>
+      </c>
+      <c r="C50" s="2">
+        <v>41053</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1">
+        <v>43910</v>
+      </c>
+      <c r="C51" s="2">
+        <v>47021</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1">
+        <v>43911</v>
+      </c>
+      <c r="C52" s="2">
+        <v>53578</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1">
+        <v>43912</v>
+      </c>
+      <c r="C53" s="2">
+        <v>59138</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1">
+        <v>43913</v>
+      </c>
+      <c r="C54" s="2">
+        <v>63927</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1">
+        <v>43914</v>
+      </c>
+      <c r="C55" s="2">
+        <v>69176</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1">
+        <v>43915</v>
+      </c>
+      <c r="C56" s="2">
+        <v>74386</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1">
+        <v>43916</v>
+      </c>
+      <c r="C57" s="2">
+        <v>80539</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1">
+        <v>43917</v>
+      </c>
+      <c r="C58" s="2">
+        <v>86498</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1">
+        <v>43918</v>
+      </c>
+      <c r="C59" s="2">
+        <v>92472</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1">
+        <v>43919</v>
+      </c>
+      <c r="C60" s="2">
+        <v>97689</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1">
+        <v>43920</v>
+      </c>
+      <c r="C61" s="2">
+        <v>101739</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1">
+        <v>43921</v>
+      </c>
+      <c r="C62" s="2">
+        <v>105792</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1">
+        <v>43922</v>
+      </c>
+      <c r="C63" s="2">
+        <v>110574</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1">
+        <v>43923</v>
+      </c>
+      <c r="C64" s="2">
+        <v>115242</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1">
+        <v>43924</v>
+      </c>
+      <c r="C65" s="2">
+        <v>119827</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1">
+        <v>43925</v>
+      </c>
+      <c r="C66" s="2">
+        <v>124632</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1">
+        <v>43926</v>
+      </c>
+      <c r="C67" s="2">
+        <v>128948</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Country_COVID19/Italy.xlsx
+++ b/Country_COVID19/Italy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\SCUMATH_Project\Project_ver2\Country_COVID19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E913200F-29BC-497D-AD78-C43B30862648}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B2CA6FD-1A0A-4346-BDF4-AB1CDAAE1956}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11256" yWindow="624" windowWidth="12324" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Day</t>
   </si>
@@ -47,70 +47,15 @@
   <si>
     <t>Recovered(cumulative)</t>
   </si>
-  <si>
-    <t>D+R(cumulative)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>選</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2/17~3/17(30</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>天</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>當資料集</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@"/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -125,12 +70,6 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Arial Unicode MS"/>
       <family val="2"/>
       <charset val="136"/>
@@ -140,20 +79,6 @@
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
       <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="細明體"/>
-      <family val="3"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="3"/>
       <charset val="136"/>
     </font>
   </fonts>
@@ -177,45 +102,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -432,10 +345,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J985"/>
+  <dimension ref="A1:F975"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -444,1109 +357,933 @@
     <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="5.1796875" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
     <col min="10" max="10" width="18" customWidth="1"/>
     <col min="11" max="26" width="5.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F1" s="7"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="4">
-        <v>43861</v>
+        <v>43878</v>
       </c>
       <c r="C2" s="5">
-        <v>2</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6">
-        <f t="shared" ref="F2:F48" si="0">D2+E2</f>
+        <v>3</v>
+      </c>
+      <c r="D2" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="4">
-        <v>43862</v>
+        <v>43879</v>
       </c>
       <c r="C3" s="5">
-        <v>2</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6">
-        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D3" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="4">
-        <v>43863</v>
+        <v>43880</v>
       </c>
       <c r="C4" s="5">
-        <v>2</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6">
-        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D4" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="4">
-        <v>43864</v>
+        <v>43881</v>
       </c>
       <c r="C5" s="5">
-        <v>2</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6">
-        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D5" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E5" s="7">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="4">
-        <v>43865</v>
+        <v>43882</v>
       </c>
       <c r="C6" s="5">
-        <v>2</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6">
-        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="4">
-        <v>43866</v>
+        <v>43883</v>
       </c>
       <c r="C7" s="5">
+        <v>79</v>
+      </c>
+      <c r="D7" s="5">
         <v>2</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="J7" s="12"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="4">
-        <v>43867</v>
+        <v>43884</v>
       </c>
       <c r="C8" s="5">
+        <v>152</v>
+      </c>
+      <c r="D8" s="5">
         <v>3</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E8" s="7">
+        <v>2</v>
+      </c>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="4">
-        <v>43868</v>
+        <v>43885</v>
       </c>
       <c r="C9" s="5">
-        <v>3</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="D9" s="5">
+        <v>7</v>
+      </c>
+      <c r="E9" s="7">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="4">
-        <v>43869</v>
+        <v>43886</v>
       </c>
       <c r="C10" s="5">
-        <v>3</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+      <c r="D10" s="5">
+        <v>10</v>
+      </c>
+      <c r="E10" s="7">
+        <v>1</v>
+      </c>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="4">
-        <v>43870</v>
+        <v>43887</v>
       </c>
       <c r="C11" s="5">
+        <v>400</v>
+      </c>
+      <c r="D11" s="5">
+        <v>12</v>
+      </c>
+      <c r="E11" s="7">
         <v>3</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="4">
-        <v>43871</v>
+        <v>43888</v>
       </c>
       <c r="C12" s="5">
-        <v>3</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>650</v>
+      </c>
+      <c r="D12" s="5">
+        <v>17</v>
+      </c>
+      <c r="E12" s="7">
+        <v>45</v>
+      </c>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="4">
-        <v>43872</v>
-      </c>
-      <c r="C13" s="5">
-        <v>3</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43889</v>
+      </c>
+      <c r="C13" s="7">
+        <v>888</v>
+      </c>
+      <c r="D13" s="7">
+        <v>21</v>
+      </c>
+      <c r="E13" s="7">
+        <v>46</v>
+      </c>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="4">
-        <v>43873</v>
-      </c>
-      <c r="C14" s="5">
-        <v>3</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43890</v>
+      </c>
+      <c r="C14" s="8">
+        <v>1128</v>
+      </c>
+      <c r="D14" s="7">
+        <v>29</v>
+      </c>
+      <c r="E14" s="7">
+        <v>46</v>
+      </c>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="7">
-        <v>43874</v>
-      </c>
-      <c r="C15" s="5">
-        <v>3</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="4">
+        <v>43891</v>
+      </c>
+      <c r="C15" s="8">
+        <v>1694</v>
+      </c>
+      <c r="D15" s="7">
+        <v>34</v>
+      </c>
+      <c r="E15" s="7">
+        <v>83</v>
+      </c>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" s="4">
-        <v>43875</v>
-      </c>
-      <c r="C16" s="5">
-        <v>3</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>43892</v>
+      </c>
+      <c r="C16" s="7">
+        <v>2036</v>
+      </c>
+      <c r="D16" s="7">
+        <v>52</v>
+      </c>
+      <c r="E16" s="7">
+        <v>149</v>
+      </c>
+      <c r="F16" s="7"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" s="4">
-        <v>43876</v>
-      </c>
-      <c r="C17" s="5">
-        <v>3</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>43893</v>
+      </c>
+      <c r="C17" s="7">
+        <v>2502</v>
+      </c>
+      <c r="D17" s="7">
+        <v>79</v>
+      </c>
+      <c r="E17" s="7">
+        <v>160</v>
+      </c>
+      <c r="F17" s="7"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18" s="4">
-        <v>43877</v>
-      </c>
-      <c r="C18" s="5">
-        <v>3</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>43894</v>
+      </c>
+      <c r="C18" s="7">
+        <v>3089</v>
+      </c>
+      <c r="D18" s="7">
+        <v>107</v>
+      </c>
+      <c r="E18" s="7">
+        <v>276</v>
+      </c>
+      <c r="F18" s="7"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>18</v>
       </c>
       <c r="B19" s="4">
-        <v>43878</v>
-      </c>
-      <c r="C19" s="5">
-        <v>3</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>43895</v>
+      </c>
+      <c r="C19" s="7">
+        <v>3858</v>
+      </c>
+      <c r="D19" s="7">
+        <v>148</v>
+      </c>
+      <c r="E19" s="7">
+        <v>414</v>
+      </c>
+      <c r="F19" s="7"/>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="4">
-        <v>43879</v>
-      </c>
-      <c r="C20" s="5">
-        <v>3</v>
-      </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="B20" s="6">
+        <v>43896</v>
+      </c>
+      <c r="C20" s="7">
+        <v>4636</v>
+      </c>
+      <c r="D20" s="7">
+        <v>197</v>
+      </c>
+      <c r="E20" s="7">
+        <v>523</v>
+      </c>
+      <c r="F20" s="7"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="4">
-        <v>43880</v>
-      </c>
-      <c r="C21" s="5">
-        <v>3</v>
-      </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="B21" s="6">
+        <v>43897</v>
+      </c>
+      <c r="C21" s="7">
+        <v>5883</v>
+      </c>
+      <c r="D21" s="7">
+        <v>233</v>
+      </c>
+      <c r="E21" s="7">
+        <v>589</v>
+      </c>
+      <c r="F21" s="7"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>21</v>
       </c>
       <c r="B22" s="4">
-        <v>43881</v>
-      </c>
-      <c r="C22" s="5">
-        <v>3</v>
-      </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>43898</v>
+      </c>
+      <c r="C22" s="7">
+        <v>7375</v>
+      </c>
+      <c r="D22" s="7">
+        <v>366</v>
+      </c>
+      <c r="E22" s="7">
+        <v>622</v>
+      </c>
+      <c r="F22" s="7"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>22</v>
       </c>
       <c r="B23" s="4">
-        <v>43882</v>
-      </c>
-      <c r="C23" s="5">
-        <v>20</v>
-      </c>
-      <c r="D23" s="5">
-        <v>1</v>
-      </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+        <v>43899</v>
+      </c>
+      <c r="C23" s="7">
+        <v>9172</v>
+      </c>
+      <c r="D23" s="7">
+        <v>463</v>
+      </c>
+      <c r="E23" s="7">
+        <v>724</v>
+      </c>
+      <c r="F23" s="7"/>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+      <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="4">
-        <v>43883</v>
-      </c>
-      <c r="C24" s="5">
-        <v>79</v>
-      </c>
-      <c r="D24" s="5">
-        <v>2</v>
-      </c>
-      <c r="E24" s="8">
-        <v>2</v>
-      </c>
-      <c r="F24" s="6">
-        <f t="shared" si="0"/>
-        <v>4</v>
+      <c r="B24" s="1">
+        <v>43900</v>
+      </c>
+      <c r="C24" s="2">
+        <v>10149</v>
+      </c>
+      <c r="D24" s="2">
+        <v>631</v>
+      </c>
+      <c r="E24" s="2">
+        <v>724</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+      <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="4">
-        <v>43884</v>
-      </c>
-      <c r="C25" s="5">
-        <v>152</v>
-      </c>
-      <c r="D25" s="5">
-        <v>3</v>
-      </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8">
-        <f t="shared" si="0"/>
-        <v>3</v>
+      <c r="B25" s="1">
+        <v>43901</v>
+      </c>
+      <c r="C25" s="2">
+        <v>12462</v>
+      </c>
+      <c r="D25" s="2">
+        <v>827</v>
+      </c>
+      <c r="E25" s="2">
+        <v>1045</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+      <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="4">
-        <v>43885</v>
-      </c>
-      <c r="C26" s="5">
-        <v>229</v>
-      </c>
-      <c r="D26" s="5">
-        <v>7</v>
-      </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8">
-        <f t="shared" si="0"/>
-        <v>7</v>
+      <c r="B26" s="1">
+        <v>43902</v>
+      </c>
+      <c r="C26" s="2">
+        <v>15113</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1016</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1045</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+      <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="4">
-        <v>43886</v>
-      </c>
-      <c r="C27" s="5">
-        <v>322</v>
-      </c>
-      <c r="D27" s="5">
-        <v>10</v>
-      </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8">
-        <f t="shared" si="0"/>
-        <v>10</v>
+      <c r="B27" s="1">
+        <v>43903</v>
+      </c>
+      <c r="C27" s="2">
+        <v>17660</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1266</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1439</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+      <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="4">
-        <v>43887</v>
-      </c>
-      <c r="C28" s="5">
-        <v>400</v>
-      </c>
-      <c r="D28" s="5">
-        <v>12</v>
-      </c>
-      <c r="E28" s="8">
-        <v>1</v>
-      </c>
-      <c r="F28" s="8">
-        <f t="shared" si="0"/>
-        <v>13</v>
+      <c r="B28" s="1">
+        <v>43904</v>
+      </c>
+      <c r="C28" s="2">
+        <v>21175</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1441</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1966</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+      <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="4">
-        <v>43888</v>
-      </c>
-      <c r="C29" s="5">
-        <v>650</v>
-      </c>
-      <c r="D29" s="5">
-        <v>17</v>
-      </c>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8">
-        <f t="shared" si="0"/>
-        <v>17</v>
+      <c r="B29" s="1">
+        <v>43905</v>
+      </c>
+      <c r="C29" s="2">
+        <v>24747</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1809</v>
+      </c>
+      <c r="E29" s="2">
+        <v>2335</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
+      <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="4">
-        <v>43889</v>
-      </c>
-      <c r="C30" s="9">
-        <v>888</v>
-      </c>
-      <c r="D30" s="9">
-        <v>21</v>
-      </c>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8">
-        <f t="shared" si="0"/>
-        <v>21</v>
+      <c r="B30" s="1">
+        <v>43906</v>
+      </c>
+      <c r="C30" s="2">
+        <v>27980</v>
+      </c>
+      <c r="D30" s="2">
+        <v>2158</v>
+      </c>
+      <c r="E30" s="2">
+        <v>2749</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
+      <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="4">
-        <v>43890</v>
-      </c>
-      <c r="C31" s="10">
-        <v>1128</v>
-      </c>
-      <c r="D31" s="9">
-        <v>29</v>
-      </c>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8">
-        <f t="shared" si="0"/>
-        <v>29</v>
+      <c r="B31" s="1">
+        <v>43907</v>
+      </c>
+      <c r="C31" s="2">
+        <v>31506</v>
+      </c>
+      <c r="D31" s="2">
+        <v>2503</v>
+      </c>
+      <c r="E31" s="2">
+        <v>2941</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
+      <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="4">
-        <v>43891</v>
-      </c>
-      <c r="C32" s="10">
-        <v>1694</v>
-      </c>
-      <c r="D32" s="9">
+      <c r="B32" s="1">
+        <v>43908</v>
+      </c>
+      <c r="C32" s="2">
+        <v>35713</v>
+      </c>
+      <c r="D32" s="2">
+        <v>2978</v>
+      </c>
+      <c r="E32" s="2">
+        <v>4025</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1">
+        <v>43909</v>
+      </c>
+      <c r="C33" s="2">
+        <v>41053</v>
+      </c>
+      <c r="D33" s="2">
+        <v>3405</v>
+      </c>
+      <c r="E33" s="2">
+        <v>4440</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1">
+        <v>43910</v>
+      </c>
+      <c r="C34" s="2">
+        <v>47021</v>
+      </c>
+      <c r="D34" s="2">
+        <v>4032</v>
+      </c>
+      <c r="E34" s="2">
+        <v>4440</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>34</v>
       </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
-        <v>32</v>
-      </c>
-      <c r="B33" s="4">
-        <v>43892</v>
-      </c>
-      <c r="C33" s="9">
-        <v>2036</v>
-      </c>
-      <c r="D33" s="9">
-        <v>52</v>
-      </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
-        <v>33</v>
-      </c>
-      <c r="B34" s="4">
-        <v>43893</v>
-      </c>
-      <c r="C34" s="9">
-        <v>2502</v>
-      </c>
-      <c r="D34" s="9">
-        <v>79</v>
-      </c>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3">
-        <f t="shared" si="0"/>
-        <v>79</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
-        <v>34</v>
-      </c>
-      <c r="B35" s="4">
-        <v>43894</v>
-      </c>
-      <c r="C35" s="9">
-        <v>3089</v>
-      </c>
-      <c r="D35" s="9">
-        <v>107</v>
-      </c>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3">
-        <f t="shared" si="0"/>
-        <v>107</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
+      <c r="B35" s="1">
+        <v>43911</v>
+      </c>
+      <c r="C35" s="2">
+        <v>53578</v>
+      </c>
+      <c r="D35" s="2">
+        <v>4825</v>
+      </c>
+      <c r="E35" s="2">
+        <v>6072</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="4">
-        <v>43895</v>
-      </c>
-      <c r="C36" s="9">
-        <v>3858</v>
-      </c>
-      <c r="D36" s="9">
-        <v>148</v>
-      </c>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3">
-        <f t="shared" si="0"/>
-        <v>148</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
+      <c r="B36" s="1">
+        <v>43912</v>
+      </c>
+      <c r="C36" s="2">
+        <v>59138</v>
+      </c>
+      <c r="D36" s="2">
+        <v>5476</v>
+      </c>
+      <c r="E36" s="2">
+        <v>7024</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="7">
-        <v>43896</v>
-      </c>
-      <c r="C37" s="9">
-        <v>4636</v>
-      </c>
-      <c r="D37" s="9">
-        <v>197</v>
-      </c>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3">
-        <f t="shared" si="0"/>
-        <v>197</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
+      <c r="B37" s="1">
+        <v>43913</v>
+      </c>
+      <c r="C37" s="2">
+        <v>63927</v>
+      </c>
+      <c r="D37" s="2">
+        <v>6077</v>
+      </c>
+      <c r="E37" s="2">
+        <v>7024</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="7">
-        <v>43897</v>
-      </c>
-      <c r="C38" s="9">
-        <v>5883</v>
-      </c>
-      <c r="D38" s="9">
-        <v>233</v>
-      </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3">
-        <f t="shared" si="0"/>
-        <v>233</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
+      <c r="B38" s="1">
+        <v>43914</v>
+      </c>
+      <c r="C38" s="2">
+        <v>69176</v>
+      </c>
+      <c r="D38" s="2">
+        <v>6820</v>
+      </c>
+      <c r="E38" s="2">
+        <v>8326</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="4">
-        <v>43898</v>
-      </c>
-      <c r="C39" s="9">
-        <v>7375</v>
-      </c>
-      <c r="D39" s="9">
-        <v>366</v>
-      </c>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3">
-        <f t="shared" si="0"/>
-        <v>366</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
+      <c r="B39" s="1">
+        <v>43915</v>
+      </c>
+      <c r="C39" s="2">
+        <v>74386</v>
+      </c>
+      <c r="D39" s="2">
+        <v>7503</v>
+      </c>
+      <c r="E39" s="2">
+        <v>9362</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="4">
-        <v>43899</v>
-      </c>
-      <c r="C40" s="9">
-        <v>9172</v>
-      </c>
-      <c r="D40" s="9">
-        <v>463</v>
-      </c>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3">
-        <f t="shared" si="0"/>
-        <v>463</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="1">
+        <v>43916</v>
+      </c>
+      <c r="C40" s="2">
+        <v>80539</v>
+      </c>
+      <c r="D40" s="2">
+        <v>8215</v>
+      </c>
+      <c r="E40" s="2">
+        <v>10361</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>43900</v>
+        <v>43917</v>
       </c>
       <c r="C41" s="2">
-        <v>10149</v>
+        <v>86498</v>
       </c>
       <c r="D41" s="2">
-        <v>631</v>
-      </c>
-      <c r="F41">
-        <f t="shared" si="0"/>
-        <v>631</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9134</v>
+      </c>
+      <c r="E41" s="2">
+        <v>10950</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" s="1">
-        <v>43901</v>
+        <v>43918</v>
       </c>
       <c r="C42" s="2">
-        <v>12462</v>
+        <v>92472</v>
       </c>
       <c r="D42" s="2">
-        <v>827</v>
-      </c>
-      <c r="F42">
-        <f t="shared" si="0"/>
-        <v>827</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>10023</v>
+      </c>
+      <c r="E42" s="2">
+        <v>12384</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" s="1">
-        <v>43902</v>
+        <v>43919</v>
       </c>
       <c r="C43" s="2">
-        <v>15113</v>
+        <v>97689</v>
       </c>
       <c r="D43" s="2">
-        <v>1016</v>
-      </c>
-      <c r="F43">
-        <f t="shared" si="0"/>
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>10779</v>
+      </c>
+      <c r="E43" s="2">
+        <v>13030</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" s="1">
-        <v>43903</v>
+        <v>43920</v>
       </c>
       <c r="C44" s="2">
-        <v>17660</v>
+        <v>101739</v>
       </c>
       <c r="D44" s="2">
-        <v>1266</v>
-      </c>
-      <c r="F44">
-        <f t="shared" si="0"/>
-        <v>1266</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>11591</v>
+      </c>
+      <c r="E44" s="2">
+        <v>14620</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" s="1">
-        <v>43904</v>
+        <v>43921</v>
       </c>
       <c r="C45" s="2">
-        <v>21175</v>
+        <v>105792</v>
       </c>
       <c r="D45" s="2">
-        <v>1441</v>
-      </c>
-      <c r="F45">
-        <f t="shared" si="0"/>
-        <v>1441</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12428</v>
+      </c>
+      <c r="E45" s="2">
+        <v>15729</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" s="1">
-        <v>43905</v>
+        <v>43922</v>
       </c>
       <c r="C46" s="2">
-        <v>24747</v>
+        <v>110574</v>
       </c>
       <c r="D46" s="2">
-        <v>1809</v>
-      </c>
-      <c r="F46">
-        <f t="shared" si="0"/>
-        <v>1809</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>13155</v>
+      </c>
+      <c r="E46" s="2">
+        <v>16847</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" s="1">
-        <v>43906</v>
+        <v>43923</v>
       </c>
       <c r="C47" s="2">
-        <v>27980</v>
+        <v>115242</v>
       </c>
       <c r="D47" s="2">
-        <v>2158</v>
-      </c>
-      <c r="F47">
-        <f t="shared" si="0"/>
-        <v>2158</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>13915</v>
+      </c>
+      <c r="E47" s="2">
+        <v>18278</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" s="1">
-        <v>43907</v>
+        <v>43924</v>
       </c>
       <c r="C48" s="2">
-        <v>31506</v>
+        <v>119827</v>
       </c>
       <c r="D48" s="2">
-        <v>2503</v>
-      </c>
-      <c r="F48">
-        <f t="shared" si="0"/>
-        <v>2503</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>14681</v>
+      </c>
+      <c r="E48" s="2">
+        <v>19758</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" s="1">
-        <v>43908</v>
+        <v>43925</v>
       </c>
       <c r="C49" s="2">
-        <v>35713</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>124632</v>
+      </c>
+      <c r="D49" s="2">
+        <v>15362</v>
+      </c>
+      <c r="E49" s="2">
+        <v>20996</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" s="1">
-        <v>43909</v>
+        <v>43926</v>
       </c>
       <c r="C50" s="2">
-        <v>41053</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>128948</v>
+      </c>
+      <c r="D50" s="2">
+        <v>15887</v>
+      </c>
+      <c r="E50" s="2">
+        <v>21815</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" s="1">
-        <v>43910</v>
+        <v>43927</v>
       </c>
       <c r="C51" s="2">
-        <v>47021</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52" s="1">
-        <v>43911</v>
-      </c>
-      <c r="C52" s="2">
-        <v>53578</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53" s="1">
-        <v>43912</v>
-      </c>
-      <c r="C53" s="2">
-        <v>59138</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="B54" s="1">
-        <v>43913</v>
-      </c>
-      <c r="C54" s="2">
-        <v>63927</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="B55" s="1">
-        <v>43914</v>
-      </c>
-      <c r="C55" s="2">
-        <v>69176</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>55</v>
-      </c>
-      <c r="B56" s="1">
-        <v>43915</v>
-      </c>
-      <c r="C56" s="2">
-        <v>74386</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="B57" s="1">
-        <v>43916</v>
-      </c>
-      <c r="C57" s="2">
-        <v>80539</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>57</v>
-      </c>
-      <c r="B58" s="1">
-        <v>43917</v>
-      </c>
-      <c r="C58" s="2">
-        <v>86498</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="B59" s="1">
-        <v>43918</v>
-      </c>
-      <c r="C59" s="2">
-        <v>92472</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>59</v>
-      </c>
-      <c r="B60" s="1">
-        <v>43919</v>
-      </c>
-      <c r="C60" s="2">
-        <v>97689</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>60</v>
-      </c>
-      <c r="B61" s="1">
-        <v>43920</v>
-      </c>
-      <c r="C61" s="2">
-        <v>101739</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>61</v>
-      </c>
-      <c r="B62" s="1">
-        <v>43921</v>
-      </c>
-      <c r="C62" s="2">
-        <v>105792</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>62</v>
-      </c>
-      <c r="B63" s="1">
-        <v>43922</v>
-      </c>
-      <c r="C63" s="2">
-        <v>110574</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>63</v>
-      </c>
-      <c r="B64" s="1">
-        <v>43923</v>
-      </c>
-      <c r="C64" s="2">
-        <v>115242</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>64</v>
-      </c>
-      <c r="B65" s="1">
-        <v>43924</v>
-      </c>
-      <c r="C65" s="2">
-        <v>119827</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>65</v>
-      </c>
-      <c r="B66" s="1">
-        <v>43925</v>
-      </c>
-      <c r="C66" s="2">
-        <v>124632</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>66</v>
-      </c>
-      <c r="B67" s="1">
-        <v>43926</v>
-      </c>
-      <c r="C67" s="2">
-        <v>128948</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>132547</v>
+      </c>
+      <c r="D51" s="2">
+        <v>16523</v>
+      </c>
+      <c r="E51" s="2">
+        <v>22837</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2442,20 +2179,7 @@
     <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="I7:J8"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
